--- a/pred_ohlcv/54_21/2019-10-30 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-25913.2650407767</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-182757.9986407767</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-223384.6746407766</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-25913.2650407767</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-182757.9986407767</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-223384.6746407766</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
